--- a/Soen287_A1_Tasks_Allocation.xlsx
+++ b/Soen287_A1_Tasks_Allocation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adirb\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/20be891dd5af7a77/Desktop/Concordia-Software Eng/SoftWare Engineering S3 (Fall 2021)/SOEN 287/SOEN-287/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBA295B-9D1D-4122-969D-4272AEFA0D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{0FBA295B-9D1D-4122-969D-4272AEFA0D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51A464F5-4B00-4F78-83D9-98715FA15AB2}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="95">
   <si>
     <t>Max</t>
   </si>
@@ -317,6 +317,9 @@
   </si>
   <si>
     <t>#2,#3,#4</t>
+  </si>
+  <si>
+    <t>#2,#3,#4,#7</t>
   </si>
 </sst>
 </file>
@@ -582,7 +585,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -696,11 +699,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -724,6 +724,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1253,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1268,26 +1274,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="45"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="A1" s="44"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
     </row>
     <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -1303,8 +1309,8 @@
     </row>
     <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="37"/>
       <c r="E4" s="37"/>
       <c r="F4" s="37"/>
@@ -1344,105 +1350,105 @@
       <c r="A16" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="47" t="s">
+      <c r="C16" s="45"/>
+      <c r="D16" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="47"/>
+      <c r="E16" s="46"/>
     </row>
     <row r="17" spans="1:11" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42">
+      <c r="C17" s="40"/>
+      <c r="D17" s="41">
         <v>40062336</v>
       </c>
-      <c r="E17" s="42"/>
+      <c r="E17" s="41"/>
     </row>
     <row r="18" spans="1:11" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="39">
+      <c r="C18" s="48"/>
+      <c r="D18" s="47">
         <v>40190551</v>
       </c>
-      <c r="E18" s="40"/>
+      <c r="E18" s="48"/>
     </row>
     <row r="19" spans="1:11" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="39">
+      <c r="C19" s="48"/>
+      <c r="D19" s="47">
         <v>40190550</v>
       </c>
-      <c r="E19" s="40"/>
+      <c r="E19" s="48"/>
     </row>
     <row r="20" spans="1:11" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="39">
+      <c r="C20" s="48"/>
+      <c r="D20" s="47">
         <v>40188881</v>
       </c>
-      <c r="E20" s="40"/>
+      <c r="E20" s="48"/>
     </row>
     <row r="21" spans="1:11" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="39">
+      <c r="C21" s="48"/>
+      <c r="D21" s="47">
         <v>40113826</v>
       </c>
-      <c r="E21" s="40"/>
+      <c r="E21" s="48"/>
     </row>
     <row r="22" spans="1:11" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="39">
+      <c r="C22" s="48"/>
+      <c r="D22" s="47">
         <v>40135132</v>
       </c>
-      <c r="E22" s="40"/>
+      <c r="E22" s="48"/>
     </row>
     <row r="23" spans="1:11" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="39">
+      <c r="C23" s="48"/>
+      <c r="D23" s="47">
         <v>40188880</v>
       </c>
-      <c r="E23" s="40"/>
+      <c r="E23" s="48"/>
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="1:11" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2435,7 +2441,7 @@
         <v>26</v>
       </c>
       <c r="K62" s="23" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="64.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2469,8 +2475,8 @@
       <c r="J63" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K63" s="38" t="s">
-        <v>82</v>
+      <c r="K63" s="39" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="61.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2504,8 +2510,8 @@
       <c r="J64" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K64" s="38" t="s">
-        <v>82</v>
+      <c r="K64" s="39" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2539,8 +2545,8 @@
       <c r="J65" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K65" s="38" t="s">
-        <v>82</v>
+      <c r="K65" s="39" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3401,6 +3407,18 @@
   </sheetData>
   <sheetProtection formatRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="B4:C4"/>
@@ -3408,18 +3426,6 @@
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Soen287_A1_Tasks_Allocation.xlsx
+++ b/Soen287_A1_Tasks_Allocation.xlsx
@@ -702,6 +702,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -724,12 +730,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1259,43 +1259,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" customWidth="1"/>
-    <col min="2" max="2" width="34.44140625" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" style="2" customWidth="1"/>
-    <col min="4" max="8" width="16.77734375" style="2" customWidth="1"/>
-    <col min="9" max="10" width="16.77734375" customWidth="1"/>
-    <col min="11" max="11" width="35.44140625" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="8" width="16.7109375" style="2" customWidth="1"/>
+    <col min="9" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="44"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-    </row>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="46"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
@@ -1307,10 +1307,10 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="45"/>
       <c r="D4" s="37"/>
       <c r="E4" s="37"/>
       <c r="F4" s="37"/>
@@ -1319,7 +1319,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
@@ -1331,7 +1331,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -1343,115 +1343,115 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:10" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:10" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46" t="s">
+      <c r="C16" s="47"/>
+      <c r="D16" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="46"/>
-    </row>
-    <row r="17" spans="1:11" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E16" s="48"/>
+    </row>
+    <row r="17" spans="1:11" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="41">
+      <c r="C17" s="42"/>
+      <c r="D17" s="43">
         <v>40062336</v>
       </c>
-      <c r="E17" s="41"/>
-    </row>
-    <row r="18" spans="1:11" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E17" s="43"/>
+    </row>
+    <row r="18" spans="1:11" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="47">
+      <c r="C18" s="41"/>
+      <c r="D18" s="40">
         <v>40190551</v>
       </c>
-      <c r="E18" s="48"/>
-    </row>
-    <row r="19" spans="1:11" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E18" s="41"/>
+    </row>
+    <row r="19" spans="1:11" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="47">
+      <c r="C19" s="41"/>
+      <c r="D19" s="40">
         <v>40190550</v>
       </c>
-      <c r="E19" s="48"/>
-    </row>
-    <row r="20" spans="1:11" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="41"/>
+    </row>
+    <row r="20" spans="1:11" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="47">
+      <c r="C20" s="41"/>
+      <c r="D20" s="40">
         <v>40188881</v>
       </c>
-      <c r="E20" s="48"/>
-    </row>
-    <row r="21" spans="1:11" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="41"/>
+    </row>
+    <row r="21" spans="1:11" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="47">
+      <c r="C21" s="41"/>
+      <c r="D21" s="40">
         <v>40113826</v>
       </c>
-      <c r="E21" s="48"/>
-    </row>
-    <row r="22" spans="1:11" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="41"/>
+    </row>
+    <row r="22" spans="1:11" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="47">
+      <c r="C22" s="41"/>
+      <c r="D22" s="40">
         <v>40135132</v>
       </c>
-      <c r="E22" s="48"/>
-    </row>
-    <row r="23" spans="1:11" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="41"/>
+    </row>
+    <row r="23" spans="1:11" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="47">
+      <c r="C23" s="41"/>
+      <c r="D23" s="40">
         <v>40188880</v>
       </c>
-      <c r="E23" s="48"/>
-    </row>
-    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:11" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="41"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:11" ht="40.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="26" t="s">
         <v>17</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>25</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>28</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
         <v>2</v>
       </c>
@@ -1571,7 +1571,7 @@
       <c r="J33" s="20"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>30</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>3</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>31</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>32</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>33</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
         <v>4</v>
       </c>
@@ -1755,7 +1755,7 @@
       <c r="J39" s="20"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" s="1" customFormat="1" ht="77.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" s="1" customFormat="1" ht="77.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>35</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>33</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18" t="s">
         <v>5</v>
       </c>
@@ -1840,7 +1840,7 @@
       <c r="J42" s="20"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>42</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="115.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" ht="115.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>44</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>43</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>33</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18" t="s">
         <v>6</v>
       </c>
@@ -1991,7 +1991,7 @@
       <c r="J47" s="20"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="43.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>45</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="86.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" ht="86.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>51</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>33</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
         <v>7</v>
       </c>
@@ -2111,7 +2111,7 @@
       <c r="J51" s="20"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>55</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>52</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="24" t="s">
         <v>53</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>33</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="18" t="s">
         <v>8</v>
       </c>
@@ -2260,7 +2260,7 @@
       <c r="J56" s="20"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>56</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>52</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>57</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>33</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="18" t="s">
         <v>9</v>
       </c>
@@ -2409,7 +2409,7 @@
       <c r="J61" s="20"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>58</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="64.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" ht="64.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>59</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="61.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" ht="61.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>63</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>33</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="18" t="s">
         <v>10</v>
       </c>
@@ -2564,7 +2564,7 @@
       <c r="J66" s="20"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" ht="108.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" ht="108.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>65</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
         <v>66</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>33</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="18" t="s">
         <v>11</v>
       </c>
@@ -2682,7 +2682,7 @@
       <c r="J70" s="20"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
         <v>67</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="64.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" ht="64.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
         <v>59</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="61.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" ht="61.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>63</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>33</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="18" t="s">
         <v>12</v>
       </c>
@@ -2837,7 +2837,7 @@
       <c r="J75" s="20"/>
       <c r="K75" s="21"/>
     </row>
-    <row r="76" spans="1:11" ht="109.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" ht="109.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
         <v>65</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>66</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
         <v>33</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="18" t="s">
         <v>13</v>
       </c>
@@ -2955,7 +2955,7 @@
       <c r="J79" s="20"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
         <v>71</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="64.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" ht="64.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
         <v>59</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="61.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" ht="61.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
         <v>63</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
         <v>33</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="18" t="s">
         <v>14</v>
       </c>
@@ -3110,7 +3110,7 @@
       <c r="J84" s="20"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
         <v>65</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
         <v>66</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
         <v>33</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="18" t="s">
         <v>15</v>
       </c>
@@ -3226,7 +3226,7 @@
       <c r="J88" s="20"/>
       <c r="K88" s="21"/>
     </row>
-    <row r="89" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
         <v>16</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
         <v>36</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="25" t="s">
         <v>47</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="25" t="s">
         <v>48</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="33" t="s">
         <v>1</v>
       </c>
@@ -3407,11 +3407,13 @@
   </sheetData>
   <sheetProtection formatRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D22:E22"/>
@@ -3419,13 +3421,11 @@
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
